--- a/biology/Médecine/Ofloxacine/Ofloxacine.xlsx
+++ b/biology/Médecine/Ofloxacine/Ofloxacine.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 L'ofloxacine est la dénomination commune internationale d'un antibiotique de synthèse appartenant à la famille des fluoroquinolones. Son énantiomère actif est la levofloxacine.
 L'ofloxacine est généralement efficace sur les bactéries Gram-négatives et souvent utilisée dans les infections urinaires et digestives. C'est un antibiotique à large spectre, bactéricide.
-La molécule, découverte en 1980 par des chercheurs japonais[3], est commercialisée sous le nom de marque Oflocet par les laboratoires Aventis (en Belgique : Tarivid - Sanofi-Aventis). La molécule est commercialisée au Canada sous le nom de Floxin par Janssen-Ortho.
-Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013)[4].
+La molécule, découverte en 1980 par des chercheurs japonais, est commercialisée sous le nom de marque Oflocet par les laboratoires Aventis (en Belgique : Tarivid - Sanofi-Aventis). La molécule est commercialisée au Canada sous le nom de Floxin par Janssen-Ortho.
+Elle fait partie de la liste des médicaments essentiels de l'Organisation mondiale de la santé (liste mise à jour en avril 2013).
 </t>
         </is>
       </c>
